--- a/Documentos/Participantes_Projeto_Cetus.xlsx
+++ b/Documentos/Participantes_Projeto_Cetus.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07e7d86e7862ab39/Documentos/Cetus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{880E17BD-8CA7-48AB-AAAC-74A677F32ADA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{DD384A9E-3074-4BCF-BCC3-8CD8C3FEF955}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB0CE9-0BA6-4FCB-B178-BA137C884D9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" xr2:uid="{10EAD312-9C4A-4A3C-BB91-9BD955F5541A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{10EAD312-9C4A-4A3C-BB91-9BD955F5541A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Participantes</t>
   </si>
@@ -154,6 +148,18 @@
   </si>
   <si>
     <t>User Git</t>
+  </si>
+  <si>
+    <t>brunoyabuuti@gmail.com</t>
+  </si>
+  <si>
+    <t>renatofrazzatoviana@gmail.com</t>
+  </si>
+  <si>
+    <t>Bruno Y</t>
+  </si>
+  <si>
+    <t>Frazzato</t>
   </si>
 </sst>
 </file>
@@ -230,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +253,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -562,30 +569,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC01D69E-3401-48AC-9EBF-76FAB5DA64DB}">
-  <dimension ref="A2:L17"/>
+  <dimension ref="A2:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.21875" customWidth="1"/>
-    <col min="13" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" customWidth="1"/>
+    <col min="13" max="13" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -641,7 +648,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -659,7 +666,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -677,7 +684,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -709,7 +716,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -727,7 +734,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -745,7 +752,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -763,7 +770,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -781,7 +788,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -805,7 +812,7 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -823,7 +830,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -831,7 +838,9 @@
         <v>12</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -841,7 +850,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -859,7 +868,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -879,7 +888,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -901,33 +910,73 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -936,6 +985,7 @@
     <hyperlink ref="B5" r:id="rId3" xr:uid="{4E0ABFC8-FE21-4CD7-88B3-F75C7E4452C5}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{BCF8A6D8-AB04-4F2A-A92D-B39B12B31B77}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{C71DD020-6E96-48E1-94B9-A43B1F1F4807}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{3F334B70-D6B5-4C97-84D1-32CA8344212C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentos/Participantes_Projeto_Cetus.xlsx
+++ b/Documentos/Participantes_Projeto_Cetus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rauhe Abdulhamid\Documents\GitHub\Cetus\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB0CE9-0BA6-4FCB-B178-BA137C884D9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27BF0D-0A39-4D32-825C-66DC8484D74F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{10EAD312-9C4A-4A3C-BB91-9BD955F5541A}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10EAD312-9C4A-4A3C-BB91-9BD955F5541A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Participantes</t>
   </si>
@@ -572,27 +572,27 @@
   <dimension ref="A2:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1796875" customWidth="1"/>
-    <col min="13" max="13" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -648,7 +648,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -716,7 +716,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -734,25 +734,37 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -770,7 +782,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -788,7 +800,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -812,7 +824,7 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -830,7 +842,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -850,7 +862,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -868,7 +880,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -888,7 +900,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -910,7 +922,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -938,7 +950,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -958,7 +970,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
